--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LLQsk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\SkylarkStudio-Suyu.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C82EDCE-CCEE-44C6-A1C3-16EDF604ECED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52A12BE7-D99F-46F7-B6E4-6AFA81A8D393}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6060" xr2:uid="{839EE02E-3C99-4373-AE06-4821677F4BF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
   <si>
     <t>list[</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,8 +39,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“};</t>
+    <t>库代蓝</t>
+  </si>
+  <si>
+    <t>常俊达</t>
+  </si>
+  <si>
+    <t>兴南霜</t>
+  </si>
+  <si>
+    <t>盈沛白</t>
+  </si>
+  <si>
+    <t>闽和歌</t>
+  </si>
+  <si>
+    <t>召紫萱</t>
+  </si>
+  <si>
+    <t>虞琳芳</t>
+  </si>
+  <si>
+    <t>厍天心</t>
+  </si>
+  <si>
+    <t>飞君丽</t>
+  </si>
+  <si>
+    <t>尉迟英杰</t>
+  </si>
+  <si>
+    <t>独敏博</t>
+  </si>
+  <si>
+    <t>仵玉珂</t>
+  </si>
+  <si>
+    <t>栗丹亦</t>
+  </si>
+  <si>
+    <t>濮天蓉</t>
+  </si>
+  <si>
+    <t>虢痴柏</t>
+  </si>
+  <si>
+    <t>井英睿</t>
+  </si>
+  <si>
+    <t>溥浩宕</t>
+  </si>
+  <si>
+    <t>亓妍芳</t>
+  </si>
+  <si>
+    <t>辟清怡</t>
+  </si>
+  <si>
+    <t>糜妙晴</t>
+  </si>
+  <si>
+    <t>成修贤</t>
+  </si>
+  <si>
+    <t>势烨霖</t>
+  </si>
+  <si>
+    <t>仍香彤</t>
+  </si>
+  <si>
+    <t>何格菲</t>
+  </si>
+  <si>
+    <t>本寄蕾</t>
+  </si>
+  <si>
+    <t>怀凝珍</t>
+  </si>
+  <si>
+    <t>出家美</t>
+  </si>
+  <si>
+    <t>帖娜娜</t>
+  </si>
+  <si>
+    <t>莱初彤</t>
+  </si>
+  <si>
+    <t>旷雅蕊</t>
+  </si>
+  <si>
+    <t>郭寒香</t>
+  </si>
+  <si>
+    <t>单易巧</t>
+  </si>
+  <si>
+    <t>example01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example02</t>
+  </si>
+  <si>
+    <t>example03</t>
+  </si>
+  <si>
+    <t>example04</t>
+  </si>
+  <si>
+    <t>example05</t>
+  </si>
+  <si>
+    <t>example06</t>
+  </si>
+  <si>
+    <t>example07</t>
+  </si>
+  <si>
+    <t>example08</t>
+  </si>
+  <si>
+    <t>example09</t>
+  </si>
+  <si>
+    <t>example10</t>
+  </si>
+  <si>
+    <t>example11</t>
+  </si>
+  <si>
+    <t>example12</t>
+  </si>
+  <si>
+    <t>example13</t>
+  </si>
+  <si>
+    <t>example14</t>
+  </si>
+  <si>
+    <t>example15</t>
+  </si>
+  <si>
+    <t>example16</t>
+  </si>
+  <si>
+    <t>example17</t>
+  </si>
+  <si>
+    <t>example18</t>
+  </si>
+  <si>
+    <t>example19</t>
+  </si>
+  <si>
+    <t>example20</t>
+  </si>
+  <si>
+    <t>example21</t>
+  </si>
+  <si>
+    <t>example22</t>
+  </si>
+  <si>
+    <t>example23</t>
+  </si>
+  <si>
+    <t>example24</t>
+  </si>
+  <si>
+    <t>example25</t>
+  </si>
+  <si>
+    <t>example26</t>
+  </si>
+  <si>
+    <t>example27</t>
+  </si>
+  <si>
+    <t>example28</t>
+  </si>
+  <si>
+    <t>example29</t>
+  </si>
+  <si>
+    <t>example30</t>
+  </si>
+  <si>
+    <t>example31</t>
+  </si>
+  <si>
+    <t>example32</t>
+  </si>
+  <si>
+    <t>"};</t>
   </si>
 </sst>
 </file>
@@ -407,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761444EA-EBDF-43F2-AD85-73696BBB17D9}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,7 +612,7 @@
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,17 +626,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1">
-        <v>0</v>
+      <c r="F1" t="s">
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -457,17 +649,17 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -480,17 +672,17 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,17 +695,17 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,17 +718,17 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
-        <v>4</v>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,17 +741,17 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>5</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>5</v>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,17 +764,17 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>6</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
-        <v>6</v>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,17 +787,17 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>7</v>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
-        <v>7</v>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,17 +810,17 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>8</v>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <v>8</v>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,17 +833,17 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>9</v>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
-        <v>9</v>
+      <c r="F10" t="s">
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,17 +856,17 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>10</v>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
-        <v>10</v>
+      <c r="F11" t="s">
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,17 +879,17 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>11</v>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
-        <v>11</v>
+      <c r="F12" t="s">
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,17 +902,17 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>12</v>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
-        <v>12</v>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,17 +925,17 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>13</v>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
-        <v>13</v>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,17 +948,17 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>14</v>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <v>14</v>
+      <c r="F15" t="s">
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -779,17 +971,17 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>15</v>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
-        <v>15</v>
+      <c r="F16" t="s">
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,17 +994,17 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>16</v>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
-        <v>16</v>
+      <c r="F17" t="s">
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,17 +1017,17 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
-        <v>17</v>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
-        <v>17</v>
+      <c r="F18" t="s">
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,17 +1040,17 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <v>18</v>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
-        <v>18</v>
+      <c r="F19" t="s">
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,17 +1063,17 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
-        <v>19</v>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1">
-        <v>19</v>
+      <c r="F20" t="s">
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,17 +1086,17 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>20</v>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
-        <v>20</v>
+      <c r="F21" t="s">
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,17 +1109,17 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>21</v>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
-        <v>21</v>
+      <c r="F22" t="s">
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,17 +1132,17 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>22</v>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
-        <v>22</v>
+      <c r="F23" t="s">
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,17 +1155,17 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <v>23</v>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
-        <v>23</v>
+      <c r="F24" t="s">
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,17 +1178,17 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <v>24</v>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="1">
-        <v>24</v>
+      <c r="F25" t="s">
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,17 +1201,17 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>25</v>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
-        <v>25</v>
+      <c r="F26" t="s">
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,17 +1224,17 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
-        <v>26</v>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
-        <v>26</v>
+      <c r="F27" t="s">
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,17 +1247,17 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1">
-        <v>27</v>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="1">
-        <v>27</v>
+      <c r="F28" t="s">
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,17 +1270,17 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>28</v>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
-        <v>28</v>
+      <c r="F29" t="s">
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,17 +1293,17 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
-        <v>29</v>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="1">
-        <v>29</v>
+      <c r="F30" t="s">
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,17 +1316,17 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
-        <v>30</v>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
-        <v>30</v>
+      <c r="F31" t="s">
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,18 +1339,21 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
-        <v>31</v>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="1">
-        <v>31</v>
+      <c r="F32" t="s">
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\SkylarkStudio-Suyu.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52A12BE7-D99F-46F7-B6E4-6AFA81A8D393}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F52965-57DD-4997-B1A0-EED8ECE83871}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6060" xr2:uid="{839EE02E-3C99-4373-AE06-4821677F4BF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作簿1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
-  <si>
-    <t>list[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]={idcard:"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>",name:"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
   <si>
     <t>库代蓝</t>
   </si>
@@ -232,7 +220,24 @@
     <t>example32</t>
   </si>
   <si>
-    <t>"};</t>
+    <t>","name": "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"No": "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info": [</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -278,11 +283,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,761 +607,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761444EA-EBDF-43F2-AD85-73696BBB17D9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33"/>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
